--- a/NdM/Questionnaire/description.xlsx
+++ b/NdM/Questionnaire/description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALBERTO TRELLES\Documents\Alberto\RA\Code-github\NdM\Questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6A561-8F92-4340-A895-D5E809508B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53901E41-90C8-4E09-B721-8714C9A737E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ddbb" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -575,7 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,22 +1629,22 @@
       <c r="L33" t="s">
         <v>110</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="6" t="s">
+      <c r="M34" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="35" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="6" t="s">
+      <c r="M35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="6" t="s">
+      <c r="M36" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1653,12 +1652,12 @@
       <c r="L38" t="s">
         <v>115</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="M38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="6" t="s">
+      <c r="M39" t="s">
         <v>114</v>
       </c>
     </row>

--- a/NdM/Questionnaire/description.xlsx
+++ b/NdM/Questionnaire/description.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALBERTO TRELLES\Documents\Alberto\RA\Code-github\NdM\Questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53901E41-90C8-4E09-B721-8714C9A737E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0635A6-8DAF-4A55-B52C-E17B7BAF6251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
   <si>
     <t>Round</t>
   </si>
@@ -507,6 +507,33 @@
   </si>
   <si>
     <t>r5-yc_cog</t>
+  </si>
+  <si>
+    <t>pe_oc_saq_olderchild</t>
+  </si>
+  <si>
+    <t>r4-oc_saq</t>
+  </si>
+  <si>
+    <t>pe_r5_ycsib_ycsibling</t>
+  </si>
+  <si>
+    <t>r5-sb_childlevel</t>
+  </si>
+  <si>
+    <t>to retrieve agency variables for yc's siblings</t>
+  </si>
+  <si>
+    <t>pe_r5_ycsaq_youngerchildsaq</t>
+  </si>
+  <si>
+    <t>r5-yc_saq</t>
+  </si>
+  <si>
+    <t>pe_r5_ocsaq_olderchildsaq</t>
+  </si>
+  <si>
+    <t>r5-oc_saq</t>
   </si>
 </sst>
 </file>
@@ -855,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J25"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,28 +1123,25 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>5</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -1125,10 +1149,10 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1136,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1147,10 +1171,10 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1158,21 +1182,59 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>44</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>126</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
